--- a/Sistemas Informaticos/Práctica 3.2 - Planificación de procesos.xlsx
+++ b/Sistemas Informaticos/Práctica 3.2 - Planificación de procesos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmorama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmorama\Desktop\Repos\Sistemas Informaticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A70051-A9B7-4A80-BA21-F8CF6EE8AE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F284EC-36DE-4BB2-9678-34591A2FACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6577,8 +6577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7751,13 +7751,17 @@
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="F67" s="10">
+        <v>12</v>
+      </c>
       <c r="L67" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
+      <c r="O67" s="10">
+        <v>17</v>
+      </c>
     </row>
     <row r="68" spans="3:16" ht="15.75" customHeight="1">
       <c r="C68" s="10" t="s">
@@ -7765,13 +7769,17 @@
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="F68" s="10">
+        <v>5</v>
+      </c>
       <c r="L68" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
+      <c r="O68" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="3:16" ht="15.75" customHeight="1">
       <c r="C69" s="10" t="s">
@@ -7779,13 +7787,18 @@
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="F69" s="10">
+        <f>F67-F68</f>
+        <v>7</v>
+      </c>
       <c r="L69" s="10" t="s">
         <v>16</v>
       </c>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
+      <c r="O69" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="70" spans="3:16" ht="15.75" customHeight="1">
       <c r="C70" s="21" t="s">
@@ -7794,14 +7807,20 @@
       <c r="D70" s="22"/>
       <c r="E70" s="23"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="10">
+        <f>F67/F68</f>
+        <v>2.4</v>
+      </c>
       <c r="L70" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="23"/>
       <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
+      <c r="P70" s="10">
+        <f>O67/O68</f>
+        <v>3.4</v>
+      </c>
     </row>
     <row r="71" spans="3:16" ht="15.75" customHeight="1"/>
     <row r="72" spans="3:16" ht="15.75" customHeight="1"/>
@@ -7826,13 +7845,17 @@
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="F75" s="10">
+        <v>4</v>
+      </c>
       <c r="L75" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
+      <c r="O75" s="10">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="3:16" ht="15.75" customHeight="1">
       <c r="C76" s="10" t="s">
@@ -7840,13 +7863,17 @@
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="F76" s="10">
+        <v>5</v>
+      </c>
       <c r="L76" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
+      <c r="O76" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="3:16" ht="15.75" customHeight="1">
       <c r="C77" s="10" t="s">
@@ -7854,13 +7881,17 @@
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="F77" s="10">
+        <v>4</v>
+      </c>
       <c r="L77" s="10" t="s">
         <v>16</v>
       </c>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
+      <c r="O77" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="3:16" ht="15.75" customHeight="1">
       <c r="C78" s="21" t="s">
@@ -7869,14 +7900,20 @@
       <c r="D78" s="22"/>
       <c r="E78" s="23"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="G78" s="10">
+        <f>F75/F76</f>
+        <v>0.8</v>
+      </c>
       <c r="L78" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M78" s="22"/>
       <c r="N78" s="23"/>
       <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
+      <c r="P78" s="10">
+        <f>O75/O76</f>
+        <v>2.8</v>
+      </c>
     </row>
     <row r="79" spans="3:16" ht="15.75" customHeight="1"/>
     <row r="80" spans="3:16" ht="15.75" customHeight="1"/>
